--- a/chronic homelessness.xlsx
+++ b/chronic homelessness.xlsx
@@ -139,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,22 +147,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -469,214 +491,217 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B2" s="4">
         <v>214</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B3" s="4">
         <v>51</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B5" s="4">
         <v>1888</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C6" s="2"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B7" s="4">
         <v>19</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B8" s="4">
         <v>4506</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B9" s="4">
         <v>146</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B10" s="4">
         <v>1794</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B11" s="4">
         <v>22</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B12" s="4">
         <v>426</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B13" s="4">
         <v>281</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B14" s="4">
         <v>468</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B15" s="4">
         <v>244</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>345</v>
+      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3">
-        <v>345</v>
-      </c>
-      <c r="C17" s="3"/>
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4">
+        <v>389</v>
+      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3">
-        <v>389</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B18" s="4">
         <v>40</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B19" s="4">
         <v>27</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4">
+        <v>394</v>
+      </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3">
-        <v>394</v>
-      </c>
-      <c r="C22" s="3"/>
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3">
-        <v>32</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chronic homelessness.xlsx
+++ b/chronic homelessness.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Number of Homeless Persons by Municipality </t>
-  </si>
-  <si>
-    <t>County name</t>
-  </si>
-  <si>
-    <t>pop of homeless persons</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Atlantic  </t>
   </si>
@@ -97,26 +87,25 @@
   </si>
   <si>
     <t xml:space="preserve">Warren    </t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,25 +155,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,241 +453,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>214</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B3" s="3">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>214</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1888</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B7" s="3">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
-        <v>1888</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B8" s="3">
+        <v>4506</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B9" s="3">
+        <v>146</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B10" s="3">
+        <v>1794</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>426</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>281</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>468</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>244</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>345</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>389</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4506</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4">
-        <v>146</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1794</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4">
-        <v>426</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4">
-        <v>281</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4">
-        <v>468</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4">
-        <v>244</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4">
-        <v>345</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4">
-        <v>389</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B21" s="3">
+        <v>394</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="4">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4">
-        <v>394</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>32</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
